--- a/Automation_Apps_Codes/_Test_Codes/asd.xlsx
+++ b/Automation_Apps_Codes/_Test_Codes/asd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="598">
   <si>
     <t>Sample Info</t>
   </si>
@@ -1389,6 +1389,420 @@
   </si>
   <si>
     <t>20:6:47</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t>No additional comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:9:21</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t>No additional comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:10:48</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1449,39 +1863,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>443</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>444</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>445</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>417</v>
+        <v>555</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>446</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>418</v>
+        <v>556</v>
       </c>
       <c r="B5" s="0">
         <v>-1</v>
@@ -1489,7 +1903,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>419</v>
+        <v>557</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -1497,15 +1911,15 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>420</v>
+        <v>558</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>447</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>421</v>
+        <v>559</v>
       </c>
       <c r="B8" s="0">
         <v>0.10000000000000001</v>
@@ -1513,69 +1927,69 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>422</v>
+        <v>560</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>448</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>423</v>
+        <v>561</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>449</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>424</v>
+        <v>562</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>450</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>425</v>
+        <v>563</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>451</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>426</v>
+        <v>564</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>452</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>427</v>
+        <v>565</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>453</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>428</v>
+        <v>566</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>454</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>429</v>
+        <v>567</v>
       </c>
       <c r="B16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>430</v>
+        <v>568</v>
       </c>
       <c r="B17" s="0">
         <v>21</v>
@@ -1583,15 +1997,15 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>455</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>432</v>
+        <v>570</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -1599,7 +2013,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>433</v>
+        <v>571</v>
       </c>
       <c r="B20" s="0">
         <v>0.10000000000000001</v>
@@ -1607,13 +2021,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>434</v>
+        <v>572</v>
       </c>
       <c r="B21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>435</v>
+        <v>573</v>
       </c>
       <c r="B22" s="0">
         <v>1</v>
@@ -1621,7 +2035,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>436</v>
+        <v>574</v>
       </c>
       <c r="B23" s="0">
         <v>50</v>
@@ -1629,7 +2043,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>437</v>
+        <v>575</v>
       </c>
       <c r="B24" s="0">
         <v>0.02</v>
@@ -1637,7 +2051,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>438</v>
+        <v>576</v>
       </c>
       <c r="B25" s="0">
         <v>0.10000000000000001</v>
@@ -1645,7 +2059,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>439</v>
+        <v>577</v>
       </c>
       <c r="B26" s="0">
         <v>82</v>
@@ -1653,24 +2067,24 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="B27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>441</v>
+        <v>579</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>456</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>442</v>
+        <v>580</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>457</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -1688,162 +2102,162 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>458</v>
+        <v>596</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>459</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.99999547005</v>
+        <v>-0.99999606609000002</v>
       </c>
       <c r="B2" s="0">
-        <v>-2.6771104776999998e-10</v>
+        <v>-2.6390184482000001e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.89998620749000002</v>
+        <v>-0.89998787642</v>
       </c>
       <c r="B3" s="0">
-        <v>-2.6605109781999999e-10</v>
+        <v>-2.6293495159000003e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.80000144243000004</v>
+        <v>-0.79999983311</v>
       </c>
       <c r="B4" s="0">
-        <v>-2.6496765892999999e-10</v>
+        <v>-2.6231170013999998e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.69998127221999995</v>
+        <v>-0.69998139143000004</v>
       </c>
       <c r="B5" s="0">
-        <v>-2.6426888455e-10</v>
+        <v>-2.5956251037e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.60000151396000001</v>
+        <v>-0.60000205039999999</v>
       </c>
       <c r="B6" s="0">
-        <v>-2.6155463906e-10</v>
+        <v>-2.5874141717999999e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.49998602270999998</v>
+        <v>-0.49998685718000002</v>
       </c>
       <c r="B7" s="0">
-        <v>-2.6082658255000001e-10</v>
+        <v>-2.5886365274e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.40000030398000003</v>
+        <v>-0.40000417829000001</v>
       </c>
       <c r="B8" s="0">
-        <v>-2.5963839412000001e-10</v>
+        <v>-2.5384896962000002e-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.29998332261999999</v>
+        <v>-0.29998603463000001</v>
       </c>
       <c r="B9" s="0">
-        <v>-2.5568933082e-10</v>
+        <v>-2.5273633186000002e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.19998128711999999</v>
+        <v>-0.1999810487</v>
       </c>
       <c r="B10" s="0">
-        <v>-2.5249757839999998e-10</v>
+        <v>-2.4935831178000001e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.099990941584000001</v>
+        <v>-0.099991761148</v>
       </c>
       <c r="B11" s="0">
-        <v>-2.4733146086999998e-10</v>
+        <v>-2.4231069928e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>7.1996328187999999e-07</v>
+        <v>5.1897222875000001e-07</v>
       </c>
       <c r="B12" s="0">
-        <v>-2.2292773182999999e-10</v>
+        <v>-2.1995721910999999e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.10001117735999999</v>
+        <v>0.10001203418</v>
       </c>
       <c r="B13" s="0">
-        <v>9.1250895728000004e-11</v>
+        <v>1.0201201689e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.20000456274</v>
+        <v>0.20000548661000001</v>
       </c>
       <c r="B14" s="0">
-        <v>4.4297938651000004e-09</v>
+        <v>4.5401225001999997e-09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.29997900127999999</v>
+        <v>0.29997873306</v>
       </c>
       <c r="B15" s="0">
-        <v>6.6348320615e-08</v>
+        <v>6.8085270755000002e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.40001380444000001</v>
+        <v>0.40001425147000003</v>
       </c>
       <c r="B16" s="0">
-        <v>1.4281746417000001e-06</v>
+        <v>1.4683612335e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.49998825788000001</v>
+        <v>0.49998778105000002</v>
       </c>
       <c r="B17" s="0">
-        <v>3.7469078961e-05</v>
+        <v>3.8354140996999997e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.59999376535000004</v>
+        <v>0.59999334812000005</v>
       </c>
       <c r="B18" s="0">
-        <v>0.00060516648226999995</v>
+        <v>0.00061472563539000005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.69996833801000002</v>
+        <v>0.69996905327000003</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0057267970406000004</v>
+        <v>0.0057888268492999996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.79999595880999996</v>
+        <v>0.79999673367000002</v>
       </c>
       <c r="B20" s="0">
-        <v>0.028084615245</v>
+        <v>0.028260285034999999</v>
       </c>
     </row>
     <row r="21">
@@ -1851,367 +2265,367 @@
         <v>0.89999848603999999</v>
       </c>
       <c r="B21" s="0">
-        <v>0.074236452578999995</v>
+        <v>0.074511468410000004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.94273090363000001</v>
+        <v>0.94224685430999999</v>
       </c>
       <c r="B22" s="0">
-        <v>0.099996536969999994</v>
+        <v>0.099996626377000006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.89999681711000001</v>
+        <v>0.89999842644000005</v>
       </c>
       <c r="B23" s="0">
-        <v>0.074875414370999996</v>
+        <v>0.075082659721000006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.79999583959999998</v>
+        <v>0.79999530315</v>
       </c>
       <c r="B24" s="0">
-        <v>0.028719013557</v>
+        <v>0.028851458803</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.69996821880000004</v>
+        <v>0.69996803999000001</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0059149242006000004</v>
+        <v>0.0059647015296000003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.59999251365999995</v>
+        <v>0.59999227523999998</v>
       </c>
       <c r="B26" s="0">
-        <v>0.00063245231285999999</v>
+        <v>0.00064031715738000004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.49998736381999997</v>
+        <v>0.49998760222999999</v>
       </c>
       <c r="B27" s="0">
-        <v>3.9824877604e-05</v>
+        <v>4.0575920138999998e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.40001443028</v>
+        <v>0.40001595020000003</v>
       </c>
       <c r="B28" s="0">
-        <v>1.5275620626e-06</v>
+        <v>1.56240867e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.29997739196000001</v>
+        <v>0.29997724295</v>
       </c>
       <c r="B29" s="0">
-        <v>7.0424270858999997e-08</v>
+        <v>7.1945699175999994e-08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.20000578462999999</v>
+        <v>0.20000497997</v>
       </c>
       <c r="B30" s="0">
-        <v>4.6918229301999999e-09</v>
+        <v>4.7934829439e-09</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.10000841319999999</v>
+        <v>0.10000886023</v>
       </c>
       <c r="B31" s="0">
-        <v>1.0940150868999999e-10</v>
+        <v>1.1885825656999999e-10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>8.0272366176000002e-07</v>
+        <v>1.0473740986e-08</v>
       </c>
       <c r="B32" s="0">
-        <v>-2.2334716021000001e-10</v>
+        <v>-2.2199579674999999e-10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.099991559982000003</v>
+        <v>-0.099993325770000002</v>
       </c>
       <c r="B33" s="0">
-        <v>-2.4844981628000002e-10</v>
+        <v>-2.4776822260999998e-10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.19998195766999999</v>
+        <v>-0.19998288154999999</v>
       </c>
       <c r="B34" s="0">
-        <v>-2.5454785502000001e-10</v>
+        <v>-2.5317317687000002e-10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>-0.29998517036</v>
+        <v>-0.29998520017000002</v>
       </c>
       <c r="B35" s="0">
-        <v>-2.5708135620000001e-10</v>
+        <v>-2.5408750104e-10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>-0.40000045299999998</v>
+        <v>-0.40000110864999999</v>
       </c>
       <c r="B36" s="0">
-        <v>-2.5983620811000002e-10</v>
+        <v>-2.5479829358000003e-10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.49998649955000002</v>
+        <v>-0.49998655915000001</v>
       </c>
       <c r="B37" s="0">
-        <v>-2.6128663122000002e-10</v>
+        <v>-2.5719787410999998e-10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.60000097752000003</v>
+        <v>-0.59999907016999998</v>
       </c>
       <c r="B38" s="0">
-        <v>-2.6309798784000001e-10</v>
+        <v>-2.5932969661e-10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.69998097420000005</v>
+        <v>-0.69997864962</v>
       </c>
       <c r="B39" s="0">
-        <v>-2.6444349488000001e-10</v>
+        <v>-2.6087879079e-10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>-0.79999995231999999</v>
+        <v>-0.80000138283</v>
       </c>
       <c r="B40" s="0">
-        <v>-2.6584717760999998e-10</v>
+        <v>-2.6044211232e-10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.89998811482999996</v>
+        <v>-0.89998465776000003</v>
       </c>
       <c r="B41" s="0">
-        <v>-2.6813601339e-10</v>
+        <v>-2.6242236162000002e-10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>-0.99999463558000001</v>
+        <v>-0.99999666214000005</v>
       </c>
       <c r="B42" s="0">
-        <v>-2.6675006647999999e-10</v>
+        <v>-2.6432125932e-10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.99999511242000005</v>
+        <v>-0.99999535084000002</v>
       </c>
       <c r="B43" s="0">
-        <v>-2.6827015609e-10</v>
+        <v>-2.6336602343e-10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>-0.89998465776000003</v>
+        <v>-0.89998829364999999</v>
       </c>
       <c r="B44" s="0">
-        <v>-2.6651122975000001e-10</v>
+        <v>-2.6216628868000002e-10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>-0.80000281334000001</v>
+        <v>-0.80000162124999996</v>
       </c>
       <c r="B45" s="0">
-        <v>-2.6510157957999998e-10</v>
+        <v>-2.6088484150999999e-10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.69997954369000004</v>
+        <v>-0.69998157023999996</v>
       </c>
       <c r="B46" s="0">
-        <v>-2.6393093266e-10</v>
+        <v>-2.5925381286e-10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>-0.59999847411999996</v>
+        <v>-0.59999829531000004</v>
       </c>
       <c r="B47" s="0">
-        <v>-2.6260851826e-10</v>
+        <v>-2.5701135663999999e-10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>-0.49998703598999999</v>
+        <v>-0.49998453258999997</v>
       </c>
       <c r="B48" s="0">
-        <v>-2.6076235614999998e-10</v>
+        <v>-2.5581747831e-10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>-0.40000250935999998</v>
+        <v>-0.40000322460999999</v>
       </c>
       <c r="B49" s="0">
-        <v>-2.5861326968999999e-10</v>
+        <v>-2.5381974300000002e-10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>-0.29998293519000002</v>
+        <v>-0.29998630285</v>
       </c>
       <c r="B50" s="0">
-        <v>-2.5568358542000001e-10</v>
+        <v>-2.5195587282999998e-10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>-0.19998167454999999</v>
+        <v>-0.19998124242000001</v>
       </c>
       <c r="B51" s="0">
-        <v>-2.5174051732e-10</v>
+        <v>-2.4927063191000002e-10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.099991895257999994</v>
+        <v>-0.099994800985000007</v>
       </c>
       <c r="B52" s="0">
-        <v>-2.4496688011000002e-10</v>
+        <v>-2.4269525278000001e-10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1.9970611902000001e-06</v>
+        <v>6.8451845436000001e-07</v>
       </c>
       <c r="B53" s="0">
-        <v>-2.2102322750000001e-10</v>
+        <v>-2.1751103696000001e-10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.10001011938</v>
+        <v>0.10000851005</v>
       </c>
       <c r="B54" s="0">
-        <v>1.0021268537e-10</v>
+        <v>1.0995467730999999e-10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.20000569522</v>
+        <v>0.20000341534999999</v>
       </c>
       <c r="B55" s="0">
-        <v>4.5379531243999998e-09</v>
+        <v>4.6285402177999998e-09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.29997965693</v>
+        <v>0.29998195171000003</v>
       </c>
       <c r="B56" s="0">
-        <v>6.8048265688999995e-08</v>
+        <v>6.9382750211999998e-08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.40001580119000002</v>
+        <v>0.40001574158999997</v>
       </c>
       <c r="B57" s="0">
-        <v>1.4662408603e-06</v>
+        <v>1.4962012074000001e-06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.49998706579000002</v>
+        <v>0.49998810887</v>
       </c>
       <c r="B58" s="0">
-        <v>3.8311794923999997e-05</v>
+        <v>3.8969381421000001e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.59999346733000003</v>
+        <v>0.59999382495999998</v>
       </c>
       <c r="B59" s="0">
-        <v>0.00061416416428999995</v>
+        <v>0.00062123726820999996</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.69996833801000002</v>
+        <v>0.69996720552000002</v>
       </c>
       <c r="B60" s="0">
-        <v>0.0057835686021000003</v>
+        <v>0.0058297319338000003</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.79999631643000002</v>
+        <v>0.79999595880999996</v>
       </c>
       <c r="B61" s="0">
-        <v>0.028241157531999999</v>
+        <v>0.028374586253999998</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.89999806881</v>
+        <v>0.89999765158</v>
       </c>
       <c r="B62" s="0">
-        <v>0.074462428688999993</v>
+        <v>0.074711650609999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.94228780270000001</v>
+        <v>0.94191509485000002</v>
       </c>
       <c r="B63" s="0">
-        <v>0.099996611476000002</v>
+        <v>0.099996544421000005</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.89999842644000005</v>
+        <v>0.89999771118000005</v>
       </c>
       <c r="B64" s="0">
-        <v>0.075202435255000005</v>
+        <v>0.075306355953000004</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.79999536276000005</v>
+        <v>0.79999601841000001</v>
       </c>
       <c r="B65" s="0">
-        <v>0.028956022113999998</v>
+        <v>0.029009327291999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.69996714591999998</v>
+        <v>0.69996756314999997</v>
       </c>
       <c r="B66" s="0">
-        <v>0.0059971520676999996</v>
+        <v>0.0060158977285</v>
       </c>
     </row>
     <row r="67">
@@ -2219,135 +2633,135 @@
         <v>0.59999245405000001</v>
       </c>
       <c r="B67" s="0">
-        <v>0.00064504472539000002</v>
+        <v>0.00064807583111999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.49998727441000002</v>
+        <v>0.49998724460999999</v>
       </c>
       <c r="B68" s="0">
-        <v>4.0986040403e-05</v>
+        <v>4.1286886699000002e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.40001362561999998</v>
+        <v>0.40001410246000002</v>
       </c>
       <c r="B69" s="0">
-        <v>1.5796713342e-06</v>
+        <v>1.5945810219000001e-06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.29997745156</v>
+        <v>0.29997792839999998</v>
       </c>
       <c r="B70" s="0">
-        <v>7.2622476921e-08</v>
+        <v>7.3307944603999997e-08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.2000041306</v>
+        <v>0.20000335574</v>
       </c>
       <c r="B71" s="0">
-        <v>4.8350381475999997e-09</v>
+        <v>4.8792974106000001e-09</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.10000900179</v>
+        <v>0.10000981389999999</v>
       </c>
       <c r="B72" s="0">
-        <v>1.2031409201999999e-10</v>
+        <v>1.2365075630000001e-10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>3.0494848032999998e-06</v>
+        <v>3.8891084841000003e-06</v>
       </c>
       <c r="B73" s="0">
-        <v>-2.2264239063e-10</v>
+        <v>-2.2127931432e-10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>-0.099993750453000005</v>
+        <v>-0.099991731346000007</v>
       </c>
       <c r="B74" s="0">
-        <v>-2.4870003278999998e-10</v>
+        <v>-2.4746538152000002e-10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>-0.19998134673000001</v>
+        <v>-0.19998274744</v>
       </c>
       <c r="B75" s="0">
-        <v>-2.5261415182000001e-10</v>
+        <v>-2.5151311588999998e-10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>-0.29998448491000002</v>
+        <v>-0.29998344182999997</v>
       </c>
       <c r="B76" s="0">
-        <v>-2.5463517405999999e-10</v>
+        <v>-2.5455942908999999e-10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>-0.40000051260000002</v>
+        <v>-0.40000131725999999</v>
       </c>
       <c r="B77" s="0">
-        <v>-2.5719787410999998e-10</v>
+        <v>-2.5419238935999999e-10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>-0.49998334049999998</v>
+        <v>-0.49998566507999997</v>
       </c>
       <c r="B78" s="0">
-        <v>-2.5849086759999997e-10</v>
+        <v>-2.5737256769999999e-10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>-0.60000097752000003</v>
+        <v>-0.60000193119</v>
       </c>
       <c r="B79" s="0">
-        <v>-2.5932975212000001e-10</v>
+        <v>-2.5854904329000001e-10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>-0.69998157023999996</v>
+        <v>-0.69998240470999995</v>
       </c>
       <c r="B80" s="0">
-        <v>-2.6250401852000001e-10</v>
+        <v>-2.5816473959000001e-10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>-0.80000138283</v>
+        <v>-0.79999881982999999</v>
       </c>
       <c r="B81" s="0">
-        <v>-2.6467647518000001e-10</v>
+        <v>-2.5989466135000001e-10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>-0.89998763800000003</v>
+        <v>-0.89998662472000002</v>
       </c>
       <c r="B82" s="0">
-        <v>-2.6375640560999999e-10</v>
+        <v>-2.6182822577000001e-10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>-0.99999403953999999</v>
+        <v>-0.99999487399999998</v>
       </c>
       <c r="B83" s="0">
-        <v>-2.6755944682000002e-10</v>
+        <v>-2.6223606619999998e-10</v>
       </c>
     </row>
   </sheetData>
